--- a/tests/test_tax_transfers/test_data/test_dfs_uhv.xlsx
+++ b/tests/test_tax_transfers/test_data/test_dfs_uhv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>hid</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>zveranl</t>
+  </si>
+  <si>
+    <t>pid</t>
   </si>
 </sst>
 </file>
@@ -404,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,58 +423,61 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>40</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
         <v>0</v>
       </c>
@@ -490,32 +496,35 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>2017</v>
       </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>35</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -534,32 +543,35 @@
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>2017</v>
       </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -578,32 +590,35 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>2017</v>
       </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>28</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -622,32 +637,35 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>2017</v>
       </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -666,35 +684,38 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>2017</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C7">
+        <v>33</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>700</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -710,32 +731,35 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>2017</v>
       </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>21</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -754,32 +778,35 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>2017</v>
       </c>
-      <c r="Q8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C9">
+        <v>37</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -798,32 +825,35 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>2017</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>45</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
@@ -842,32 +872,35 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <v>2019</v>
       </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>11</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
         <v>0</v>
       </c>
@@ -886,32 +919,35 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>2019</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>14</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
         <v>0</v>
       </c>
@@ -930,39 +966,42 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>2019</v>
       </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q20" s="1"/>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
